--- a/database/BHCCTD.xlsx
+++ b/database/BHCCTD.xlsx
@@ -405,14 +405,14 @@
   <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>1890</v>
+        <v>1890000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -445,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>1900</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -456,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>1980</v>
+        <v>1980000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>2100</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>2250</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>2360</v>
+        <v>2360000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>2620</v>
+        <v>2620000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>2820</v>
+        <v>2820000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>3020</v>
+        <v>3020000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>3420</v>
+        <v>3420000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>3540</v>
+        <v>3540000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>3940</v>
+        <v>3940000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>4160</v>
+        <v>4160000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>4550</v>
+        <v>4550000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>4750</v>
+        <v>4750000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -599,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>5150</v>
+        <v>5150000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>6040</v>
+        <v>6040000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -621,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>6440</v>
+        <v>6440000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -632,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="3">
-        <v>6900</v>
+        <v>6900000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>7390</v>
+        <v>7390000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>7790</v>
+        <v>7790000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>8760</v>
+        <v>8760000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>9400</v>
+        <v>9400000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -687,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>10280</v>
+        <v>10280000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>11170</v>
+        <v>11170000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>12370</v>
+        <v>12370000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>13280</v>
+        <v>13280000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>13970</v>
+        <v>13970000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="3">
-        <v>15670</v>
+        <v>15670000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="3">
-        <v>16860</v>
+        <v>16860000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="3">
-        <v>17860</v>
+        <v>17860000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -775,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="3">
-        <v>19180</v>
+        <v>19180000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="3">
-        <v>19480</v>
+        <v>19480000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="3">
-        <v>21080</v>
+        <v>21080000</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="3">
-        <v>22110</v>
+        <v>22110000</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="3">
-        <v>23220</v>
+        <v>23220000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="3">
-        <v>24430</v>
+        <v>24430000</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="3">
-        <v>25730</v>
+        <v>25730000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="3">
-        <v>27090</v>
+        <v>27090000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="3">
-        <v>28720</v>
+        <v>28720000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="3">
-        <v>31000</v>
+        <v>31000000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="3">
-        <v>32490</v>
+        <v>32490000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="3">
-        <v>35210</v>
+        <v>35210000</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="3">
-        <v>38280</v>
+        <v>38280000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="3">
-        <v>41470</v>
+        <v>41470000</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="3">
-        <v>46090</v>
+        <v>46090000</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="3">
-        <v>1900</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="3">
-        <v>1920</v>
+        <v>1920000</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="3">
-        <v>2010</v>
+        <v>2010000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -973,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="3">
-        <v>2160</v>
+        <v>2160000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="3">
-        <v>2360</v>
+        <v>2360000</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -995,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="3">
-        <v>2420</v>
+        <v>2420000</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="3">
-        <v>2560</v>
+        <v>2560000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="3">
-        <v>2760</v>
+        <v>2760000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="3">
-        <v>2970</v>
+        <v>2970000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="3">
-        <v>3110</v>
+        <v>3110000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="3">
-        <v>3350</v>
+        <v>3350000</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="3">
-        <v>3530</v>
+        <v>3530000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="3">
-        <v>3940</v>
+        <v>3940000</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="3">
-        <v>4090</v>
+        <v>4090000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="3">
-        <v>4260</v>
+        <v>4260000</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="3">
-        <v>4630</v>
+        <v>4630000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="3">
-        <v>4920</v>
+        <v>4920000</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1127,7 +1127,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="3">
-        <v>5220</v>
+        <v>5220000</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1138,7 +1138,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="3">
-        <v>5670</v>
+        <v>5670000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="3">
-        <v>5800</v>
+        <v>5800000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1160,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="3">
-        <v>6290</v>
+        <v>6290000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="3">
-        <v>6700</v>
+        <v>6700000</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1182,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="3">
-        <v>7000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="3">
-        <v>7480</v>
+        <v>7480000</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1204,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="3">
-        <v>8340</v>
+        <v>8340000</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="3">
-        <v>8920</v>
+        <v>8920000</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="3">
-        <v>9370</v>
+        <v>9370000</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="3">
-        <v>10020</v>
+        <v>10020000</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1248,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="3">
-        <v>10720</v>
+        <v>10720000</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1259,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="3">
-        <v>11200</v>
+        <v>11200000</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1270,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="3">
-        <v>12210</v>
+        <v>12210000</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1281,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="3">
-        <v>13030</v>
+        <v>13030000</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1292,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="3">
-        <v>13890</v>
+        <v>13890000</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="3">
-        <v>14840</v>
+        <v>14840000</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1314,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="3">
-        <v>15430</v>
+        <v>15430000</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="3">
-        <v>16040</v>
+        <v>16040000</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="3">
-        <v>16350</v>
+        <v>16350000</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="C85" s="3">
-        <v>17370</v>
+        <v>17370000</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="C86" s="3">
-        <v>18420</v>
+        <v>18420000</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="3">
-        <v>19560</v>
+        <v>19560000</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1380,7 +1380,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="3">
-        <v>20780</v>
+        <v>20780000</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="3">
-        <v>22020</v>
+        <v>22020000</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="C90" s="3">
-        <v>23320</v>
+        <v>23320000</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="3">
-        <v>24840</v>
+        <v>24840000</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1424,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="3">
-        <v>26360</v>
+        <v>26360000</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="C93" s="3">
-        <v>27980</v>
+        <v>27980000</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="C94" s="3">
-        <v>29720</v>
+        <v>29720000</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1457,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="C95" s="3">
-        <v>31540</v>
+        <v>31540000</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1468,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="3">
-        <v>33500</v>
+        <v>33500000</v>
       </c>
     </row>
   </sheetData>
